--- a/Problems/data_structure_rigid_plane_frames_q3.xlsx
+++ b/Problems/data_structure_rigid_plane_frames_q3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtr1230\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D6F29-2F49-462B-A0AF-2566FF6EC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5AF917-ABC4-46FE-B39F-1100F5D9BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="1845" windowWidth="15465" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,9 @@
       <c r="F3" s="3">
         <v>2.4</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="4">
+        <v>300</v>
+      </c>
       <c r="H3" s="3">
         <v>1E-3</v>
       </c>
@@ -488,7 +490,9 @@
       <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5">
+        <v>9</v>
+      </c>
       <c r="M3" s="6">
         <f>2 * 10^-6</f>
         <v>1.9999999999999999E-6</v>
@@ -512,7 +516,9 @@
       <c r="F4" s="3">
         <v>2.4</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="4">
+        <v>300</v>
+      </c>
       <c r="H4" s="3">
         <v>1E-3</v>
       </c>
@@ -523,7 +529,9 @@
       <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5">
+        <v>9</v>
+      </c>
       <c r="M4" s="6">
         <f>2 * 10^-6</f>
         <v>1.9999999999999999E-6</v>
@@ -547,7 +555,9 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="4">
+        <v>300</v>
+      </c>
       <c r="H5" s="3">
         <f>0.001/5</f>
         <v>2.0000000000000001E-4</v>
@@ -559,7 +569,9 @@
       <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="5">
+        <v>9</v>
+      </c>
       <c r="M5" s="6">
         <f>(2 * 10^-6)/200</f>
         <v>1E-8</v>
